--- a/ExpertData/1_ExportScoreData.xlsx
+++ b/ExpertData/1_ExportScoreData.xlsx
@@ -159,7 +159,9 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -171,7 +173,9 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -183,7 +187,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -195,7 +201,9 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5"/>
+      <c r="C5" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
@@ -207,7 +215,9 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6"/>
+      <c r="C6" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -219,7 +229,9 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -231,7 +243,9 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
@@ -243,7 +257,9 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
@@ -255,7 +271,9 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10"/>
+      <c r="C10" s="2">
+        <v>0.01</v>
+      </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>

--- a/ExpertData/1_ExportScoreData.xlsx
+++ b/ExpertData/1_ExportScoreData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codes\PythonCode\Solr_LTR\Solr_LTR\ExpertData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11436620-DE8A-4454-B16C-D8A00B90FA37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18CD01D-D139-47B4-B0FD-2BF1C72A72EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -481,7 +481,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>

--- a/ExpertData/1_ExportScoreData.xlsx
+++ b/ExpertData/1_ExportScoreData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codes\PythonCode\Solr_LTR\Solr_LTR\ExpertData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18CD01D-D139-47B4-B0FD-2BF1C72A72EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCBCC34-B2C9-4246-BD9F-4B23847ABF5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>ScoreType</t>
   </si>
@@ -34,23 +34,27 @@
     <t>HUMAN_JUDGEMENT</t>
   </si>
   <si>
-    <t>金融</t>
+    <t>2153956352</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>3311982849</t>
+    <t>2153956341</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2346189602</t>
+    <t>2154479813</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>3312006337</t>
+    <t>2154479809</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1217411419</t>
+    <t>人事院規則</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人事院規則</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -435,7 +439,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -461,10 +465,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
@@ -475,10 +479,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -489,10 +493,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -503,10 +507,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
